--- a/teams.xlsx
+++ b/teams.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GITHUB\SUAI_PROJECTS\SUAI-projects\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F07649B-5BD4-4927-AA42-D8656FFAB78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="7935" yWindow="10980" windowWidth="21600" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">ID </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Name</t>
@@ -34,35 +29,47 @@
     <t>Group_ID</t>
   </si>
   <si>
-    <t>Creator_ID'</t>
-  </si>
-  <si>
-    <t>Members</t>
+    <t>Creator_ID</t>
+  </si>
+  <si>
+    <t>Команда 9 kjh</t>
+  </si>
+  <si>
+    <t>Команда 10 ty</t>
+  </si>
+  <si>
+    <t>Команда 10 yt</t>
+  </si>
+  <si>
+    <t>Команда 11 ук</t>
+  </si>
+  <si>
+    <t>Команда 11 ку</t>
+  </si>
+  <si>
+    <t>Команда 12 ty</t>
+  </si>
+  <si>
+    <t>Команда 12 yt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -80,25 +87,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -386,19 +381,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,12 +410,127 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="n">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/teams.xlsx
+++ b/teams.xlsx
@@ -1,75 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GITHUB\тесты\не работает - группы\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE06E753-AC24-4A68-917C-E53B7F3A9664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3975" yWindow="4140" windowWidth="21600" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Discipline_ID</t>
-  </si>
-  <si>
-    <t>Group_ID</t>
-  </si>
-  <si>
-    <t>Creator_ID</t>
-  </si>
-  <si>
-    <t>Команда 9 kjh</t>
-  </si>
-  <si>
-    <t>Команда 10 ty</t>
-  </si>
-  <si>
-    <t>Команда 10 yt</t>
-  </si>
-  <si>
-    <t>Команда 11 ук</t>
-  </si>
-  <si>
-    <t>Команда 11 ку</t>
-  </si>
-  <si>
-    <t>Команда 12 ty</t>
-  </si>
-  <si>
-    <t>Команда 12 yt</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -88,12 +55,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -381,156 +357,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="n">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="n">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="n">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="n">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="n">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="n">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/teams.xlsx
+++ b/teams.xlsx
@@ -1,42 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GITHUB\тесты\не работает - группы\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE06E753-AC24-4A68-917C-E53B7F3A9664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="4140" windowWidth="21600" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Discipline_ID</t>
+  </si>
+  <si>
+    <t>Group_ID</t>
+  </si>
+  <si>
+    <t>Creator_ID</t>
+  </si>
+  <si>
+    <t>Members</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Student_Comment</t>
+  </si>
+  <si>
+    <t>Teacher_Comment</t>
+  </si>
+  <si>
+    <t>Команда ежики</t>
+  </si>
+  <si>
+    <t>Переделывай!</t>
+  </si>
+  <si>
+    <t>молодец он</t>
+  </si>
+  <si>
+    <t>Команда львы</t>
+  </si>
+  <si>
+    <t>Команда Ezick</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,21 +97,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -357,18 +390,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>